--- a/simulations/inputs/outputs_validation_root_cynaps_V0.xlsx
+++ b/simulations/inputs/outputs_validation_root_cynaps_V0.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\Root_BRIDGES\root_cynaps\simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7611EFA-8668-457D-A786-7E347B8C388A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BDABD-B8BD-4FBF-B191-5C330CE6B33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_as_columns" sheetId="2" r:id="rId1"/>
     <sheet name="reference_list&amp;conversion" sheetId="5" r:id="rId2"/>
-    <sheet name="Comparison_with_parameters.py" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="alignment_estimator" sheetId="6" r:id="rId3"/>
+    <sheet name="exp_growth_parameters" sheetId="7" r:id="rId4"/>
+    <sheet name="Comparison_with_parameters.py" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="327">
   <si>
     <t>input_file</t>
   </si>
@@ -679,15 +703,9 @@
     <t>converted_std_value</t>
   </si>
   <si>
-    <t>environment type / heterogeneity</t>
-  </si>
-  <si>
     <t>Sampling technique</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>organ type</t>
   </si>
   <si>
@@ -700,15 +718,6 @@
     <t>local nitrate uptake</t>
   </si>
   <si>
-    <t>specie / variety</t>
-  </si>
-  <si>
-    <t>Zea maye / Dekalb</t>
-  </si>
-  <si>
-    <t>hydroponics / homogeneous</t>
-  </si>
-  <si>
     <t>PVC tube with silicon septum filled with nutrient solution and after 1h remaining concentration was assessed through septum (destructive, with root segment structural properties also measured).</t>
   </si>
   <si>
@@ -718,9 +727,6 @@
     <t xml:space="preserve">Variation of flux to estimate MM parameters were performed between 250 µM and 2.5 mM concentrations. </t>
   </si>
   <si>
-    <t>15 days</t>
-  </si>
-  <si>
     <t>pmol.cm-2.s-1</t>
   </si>
   <si>
@@ -766,20 +772,288 @@
     <t>references</t>
   </si>
   <si>
-    <t>reference_value</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>radial_import_water</t>
+  </si>
+  <si>
+    <t>xylem_total_pressure</t>
+  </si>
+  <si>
+    <t>axial_export_water_up</t>
+  </si>
+  <si>
+    <t>Import of water from soil to the xylem</t>
+  </si>
+  <si>
+    <t>Collar export to aerial organs</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Xylem hydrostatic water potential</t>
+  </si>
+  <si>
+    <t>check_collar</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Root segment symplasmic amino acid massic concentrations (mol of Nitrate + Amonium per g of dry structuram mass)</t>
+  </si>
+  <si>
+    <t>diffusion_AA_soil+diffusion_AA_soil_xylem-import_AA</t>
+  </si>
+  <si>
+    <t>Raw amino-acid rhizodeposition</t>
+  </si>
+  <si>
+    <t>Common knowledge</t>
+  </si>
+  <si>
+    <t>Cao et al., 2021</t>
+  </si>
+  <si>
+    <t>age (days)</t>
+  </si>
+  <si>
+    <t>root system</t>
+  </si>
+  <si>
+    <t>split root half 15N labelled</t>
+  </si>
+  <si>
+    <t>Isotope mass balance (Hupe et al. 2016)</t>
+  </si>
+  <si>
+    <t>Only 35 days to stay in vegetative stage</t>
+  </si>
+  <si>
+    <t>mg.plant-1</t>
+  </si>
+  <si>
+    <t>mol.g-1.s-1</t>
+  </si>
+  <si>
+    <t>usually_passing</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>days since sowing</t>
+  </si>
+  <si>
+    <t>time (h)</t>
+  </si>
+  <si>
+    <t>Constant mean daily temperature (°C)</t>
+  </si>
+  <si>
+    <t>Mean temperature data (°C)</t>
+  </si>
+  <si>
+    <t>thermal time if constant average (°C.d)</t>
+  </si>
+  <si>
+    <t>thermal time if variable average (°C.d)</t>
+  </si>
+  <si>
+    <t>FW data (g)</t>
+  </si>
+  <si>
+    <t>DW data (g)</t>
+  </si>
+  <si>
+    <t>DW computed (g)</t>
+  </si>
+  <si>
+    <t>plotted DW (g)</t>
+  </si>
+  <si>
+    <t>exp_b</t>
+  </si>
+  <si>
+    <t>exp_a</t>
+  </si>
+  <si>
+    <t>predict if data missing (g DW)</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>specie</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>Triticum aestivum</t>
+  </si>
+  <si>
+    <t>Fischer et Kohn 1966</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Dekalb</t>
+  </si>
+  <si>
+    <t>Liaochun 17</t>
+  </si>
+  <si>
+    <t>Zea mays</t>
+  </si>
+  <si>
+    <t>heterogeneity</t>
+  </si>
+  <si>
+    <t>hydroponics</t>
+  </si>
+  <si>
+    <t>homogeneous</t>
+  </si>
+  <si>
+    <t>heterogeneous (binary)</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>soil type</t>
+  </si>
+  <si>
+    <t>Themal age (°C.days)</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>diffusion_AA_soil+diffusion_AA_soil_xylem</t>
+  </si>
+  <si>
+    <t>Lessufleur et al. 2007</t>
+  </si>
+  <si>
+    <t>Raw rate of organic nitrogen rhizodeposition</t>
+  </si>
+  <si>
+    <t>Net rate of organic nitrogen rhizodeposition</t>
+  </si>
+  <si>
+    <t>Lolium perenne</t>
+  </si>
+  <si>
+    <t>Parallel measure of amino acid 15N influx and % of 15N in the medium</t>
+  </si>
+  <si>
+    <t>15N efflux has been computed knowing the influx and measuring the decrease in 15N abundance vs 14N in the medium</t>
+  </si>
+  <si>
+    <t>µmol.g-1 DW.h-1</t>
+  </si>
+  <si>
+    <t>Values for Serine and ryegrass as it represents closest specie to wheat</t>
+  </si>
+  <si>
+    <t>o Using the reported proportion of serine (21.2%) in root exudates
+o number of N per serine = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- massic rate was constant over the growth period
+- with supposed exp growth paremeters derived from seed mass and measured FW / 10 at 35 days = 325 mg (Fig3). A is derived from Fischer 1966. b is derived from this study (measured mass).
+- with the molar mass supposed to correspond to 14N only.
+- with weather data from https://www.ncei.noaa.gov/access/search/data-search/daily-summaries?pageNum=1&amp;startDate=2014-04-05T00:00:00&amp;endDate=2014-06-14T23:59:59&amp;bbox=42.198,123.027,41.386,123.839
+- mean number of N = 1</t>
+  </si>
+  <si>
+    <t>Net amino-acid rhizodeposition</t>
+  </si>
+  <si>
+    <t>Carvalais et al. 2011</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Solution sampling</t>
+  </si>
+  <si>
+    <t>Analyzed with</t>
+  </si>
+  <si>
+    <t>15N isotopy</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>Only control because we don't consider stess yet</t>
+  </si>
+  <si>
+    <t>pmol.g-1 FW.h-1</t>
+  </si>
+  <si>
+    <t>o Supposing the DW/FW ratio equals 0.1</t>
+  </si>
+  <si>
+    <t>Rigano et al. 1966</t>
+  </si>
+  <si>
+    <t>Hordeum vulgare</t>
+  </si>
+  <si>
+    <t>distica penice</t>
+  </si>
+  <si>
+    <t>After frozen grounding, 20/80 water/ethanol extraction</t>
+  </si>
+  <si>
+    <t>Ignored points before 2h because seedlings were grown in N free medium before</t>
+  </si>
+  <si>
+    <t>µmol glutamine.g-1 FW</t>
+  </si>
+  <si>
+    <t>Massic concentration of total soluble amino acids</t>
+  </si>
+  <si>
+    <t>o Supposing the DW/FW ratio equals 0.2
+o Supposing glutamine accounts for 15 % of total amino acids from Lessufleur et al. 2007</t>
+  </si>
+  <si>
+    <t>mean value</t>
+  </si>
+  <si>
+    <t>Siddiqi et al., 1989</t>
+  </si>
+  <si>
+    <t>Massic concentration of nitrate and amonium</t>
+  </si>
+  <si>
+    <t>klondike</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,8 +1197,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,6 +1390,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1286,7 +1578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1304,6 +1596,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1349,7 +1647,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1360,6 +1669,1387 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>alignment_estimator!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>alignment_estimator!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D50-489C-9F0E-631FEFA0A226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="246786528"/>
+        <c:axId val="246787008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="246786528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246787008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="246787008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246786528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2415853" cy="426014"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE54BC4-F4F3-C828-601E-D54A73C69C6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="28575000" y="414337"/>
+              <a:ext cx="2415853" cy="426014"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁𝑑𝑓𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Massic</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>rate</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑡</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>.</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE54BC4-F4F3-C828-601E-D54A73C69C6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="28575000" y="414337"/>
+              <a:ext cx="2415853" cy="426014"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁𝑑𝑓𝑅 "=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Massic_rate*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡∗∫24_0^𝑇▒〖𝑎𝑒^𝑏𝑡.𝑑𝑡〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A728C3A-8E28-90F4-C000-A7B7F97D3C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1625,257 +3315,679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N29"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="12" width="15.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16" width="15.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>239</v>
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>245</v>
+      <c r="G1" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="4" t="e">
+      <c r="F2" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>1E-4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="J2" s="9">
         <v>1E-3</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>179</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="O2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="9" cm="1">
+        <f t="array" ref="G3">AVERAGE(_xlfn._xlws.FILTER('reference_list&amp;conversion'!V:V, ('reference_list&amp;conversion'!$A:$A=$B3)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>1.6393323996265142E-4</v>
+      </c>
+      <c r="H3" s="9" t="e" cm="1">
+        <f t="array" ref="H3">IFERROR(SQRT(AVERAGE(_xlfn._xlws.FILTER('reference_list&amp;conversion'!W:W, 'reference_list&amp;conversion'!$A:$A=$B3)^2) + _xlfn.VAR.S(_xlfn._xlws.FILTER('reference_list&amp;conversion'!V:V, ('reference_list&amp;conversion'!$A:$A=$B3)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="9" cm="1">
+        <f t="array" ref="I3">MIN(_xlfn._xlws.FILTER('reference_list&amp;conversion'!X:X,('reference_list&amp;conversion'!$A:$A=$B3)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>7.3095238095238015E-5</v>
+      </c>
+      <c r="J3" s="9" cm="1">
+        <f t="array" ref="J3">MAX(_xlfn._xlws.FILTER('reference_list&amp;conversion'!Y:Y,('reference_list&amp;conversion'!$A:$A=$B3)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>2.4724089635854265E-4</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G4" s="9">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H4" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="9">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H3" s="9">
+      <c r="J4" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="P4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G5" s="9">
         <v>5.4999999999999996E-9</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H5" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="9">
         <f>MIN(0.0000000023,0.00000000034)</f>
         <v>3.4000000000000001E-10</v>
       </c>
-      <c r="H4" s="9">
+      <c r="J5" s="9">
         <f>MAX(0.0000012, 0.0000000057)</f>
         <v>1.1999999999999999E-6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="N5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M4" s="4" t="e">
+      <c r="Q5" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="N4" s="4" t="e">
+      <c r="R5" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G6" s="9">
         <v>8.7999999999999998E-5</v>
       </c>
-      <c r="G5" s="9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H5" s="9">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="4" t="e">
+      <c r="H6" s="9" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="N5" s="4" t="e">
+      <c r="I6" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="10"/>
+      <c r="R6" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H7" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="9">
+        <v>-10000000</v>
+      </c>
+      <c r="J8" s="9">
+        <v>-10000</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H9" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R9" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="4" cm="1">
+        <f t="array" ref="G10">AVERAGE(_xlfn._xlws.FILTER('reference_list&amp;conversion'!V:V, ('reference_list&amp;conversion'!$A:$A=$B10)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>9.046003613776749E-10</v>
+      </c>
+      <c r="H10" s="4" cm="1">
+        <f t="array" ref="H10">IFERROR(SQRT(AVERAGE(_xlfn._xlws.FILTER('reference_list&amp;conversion'!W:W, 'reference_list&amp;conversion'!$A:$A=$B10)^2) + _xlfn.VAR.S(_xlfn._xlws.FILTER('reference_list&amp;conversion'!V:V, ('reference_list&amp;conversion'!$A:$A=$B10)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))),NA())</f>
+        <v>1.2809900539560876E-9</v>
+      </c>
+      <c r="I10" s="4" cm="1">
+        <f t="array" ref="I10">MIN(_xlfn._xlws.FILTER('reference_list&amp;conversion'!X:X,('reference_list&amp;conversion'!$A:$A=$B10)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>8.3333333333333338E-13</v>
+      </c>
+      <c r="J10" s="4" cm="1">
+        <f t="array" ref="J10">MAX(_xlfn._xlws.FILTER('reference_list&amp;conversion'!Y:Y,('reference_list&amp;conversion'!$A:$A=$B10)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>2.0663913021965896E-9</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R10" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="4" cm="1">
+        <f t="array" ref="G11">AVERAGE(_xlfn._xlws.FILTER('reference_list&amp;conversion'!V:V, ('reference_list&amp;conversion'!$A:$A=$B11)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>6.9313417190775683E-9</v>
+      </c>
+      <c r="H11" s="4" t="e" cm="1">
+        <f t="array" ref="H11">IFERROR(SQRT(AVERAGE(_xlfn._xlws.FILTER('reference_list&amp;conversion'!W:W, 'reference_list&amp;conversion'!$A:$A=$B11)^2) + _xlfn.VAR.S(_xlfn._xlws.FILTER('reference_list&amp;conversion'!V:V, ('reference_list&amp;conversion'!$A:$A=$B11)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="4" cm="1">
+        <f t="array" ref="I11">MIN(_xlfn._xlws.FILTER('reference_list&amp;conversion'!X:X,('reference_list&amp;conversion'!$A:$A=$B11)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>2.8432914046121594E-9</v>
+      </c>
+      <c r="J11" s="4" cm="1">
+        <f t="array" ref="J11">MAX(_xlfn._xlws.FILTER('reference_list&amp;conversion'!Y:Y,('reference_list&amp;conversion'!$A:$A=$B11)*IF($A$3="no",1,'reference_list&amp;conversion'!$D:$D=$A$3)))</f>
+        <v>1.101939203354298E-8</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1883,187 +3995,1100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1409DA-5B3D-4C19-B6DA-5F98667DB196}">
-  <dimension ref="A1:Y2"/>
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="18" max="21" width="16.85546875" customWidth="1"/>
-    <col min="22" max="22" width="23.42578125" customWidth="1"/>
-    <col min="23" max="25" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="22" max="25" width="16.85546875" customWidth="1"/>
+    <col min="26" max="26" width="43.42578125" customWidth="1"/>
+    <col min="27" max="29" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC1" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
       <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
         <v>218</v>
       </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K2" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" t="e">
+        <v>281</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="e">
         <f>NA()</f>
         <v>#N/A</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" t="s">
+        <v>219</v>
       </c>
       <c r="M2" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>26.64</v>
-      </c>
-      <c r="P2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>219</v>
-      </c>
-      <c r="R2" t="e">
+      <c r="N2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P2" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="S2" t="e">
+      <c r="Q2" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="T2">
-        <f>N2*2*PI()*0.0002/1000000000</f>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>26.64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>222</v>
+      </c>
+      <c r="U2" t="s">
+        <v>217</v>
+      </c>
+      <c r="V2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2">
+        <f>R2*2*PI()*0.0002/1000000000</f>
         <v>1.2566370614359174E-11</v>
       </c>
-      <c r="U2">
-        <f>O2*2*PI()*0.0002/1000000000</f>
+      <c r="Y2">
+        <f>S2*2*PI()*0.0002/1000000000</f>
         <v>3.347681131665284E-11</v>
       </c>
-      <c r="V2" t="s">
-        <v>232</v>
-      </c>
-      <c r="W2" t="s">
-        <v>233</v>
-      </c>
-      <c r="X2" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC2" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>499</v>
+      </c>
+      <c r="H3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>6.5</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>258</v>
+      </c>
+      <c r="U3" t="s">
+        <v>259</v>
+      </c>
+      <c r="V3">
+        <f>(P3*0.0045)/(0.0346*(EXP(0.0045*$F$3*24)-1)*$F$3*24)/1000/14</f>
+        <v>1.8080923894220164E-9</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:Y3" si="0">(Q3*0.0045)/(0.0346*(EXP(0.0045*$F$3*24)-1)*$F$3*24)/1000/14</f>
+        <v>1.2914945638728685E-10</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>1.6789429330347292E-9</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>2.0663913021965896E-9</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <f>F4*(20*16+15*8)/24</f>
+        <v>550</v>
+      </c>
+      <c r="H4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" t="s">
+        <v>299</v>
+      </c>
+      <c r="M4" t="s">
+        <v>310</v>
+      </c>
+      <c r="N4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O4" t="s">
+        <v>302</v>
+      </c>
+      <c r="P4">
+        <v>5.29</v>
+      </c>
+      <c r="Q4">
+        <v>3.12</v>
+      </c>
+      <c r="R4">
+        <f>P4-Q4</f>
+        <v>2.17</v>
+      </c>
+      <c r="S4">
+        <f>P4+Q4</f>
+        <v>8.41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>301</v>
+      </c>
+      <c r="U4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V4">
+        <f>P4/1000000/3600/0.212</f>
+        <v>6.9313417190775683E-9</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:Y4" si="1">Q4/1000000/3600/0.212</f>
+        <v>4.0880503144654089E-9</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>2.8432914046121594E-9</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>1.101939203354298E-8</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f>F5*(25*16+20*8)/24</f>
+        <v>350</v>
+      </c>
+      <c r="H5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" t="s">
+        <v>311</v>
+      </c>
+      <c r="N5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5">
+        <v>399</v>
+      </c>
+      <c r="Q5">
+        <v>99</v>
+      </c>
+      <c r="R5">
+        <f>P5-Q5</f>
+        <v>300</v>
+      </c>
+      <c r="S5">
+        <f>P5+Q5</f>
+        <v>498</v>
+      </c>
+      <c r="T5" t="s">
+        <v>313</v>
+      </c>
+      <c r="U5" t="s">
+        <v>259</v>
+      </c>
+      <c r="V5">
+        <f>P5/0.1/3600/1000000000000</f>
+        <v>1.1083333333333334E-12</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:Y5" si="2">Q5/0.1/3600/1000000000000</f>
+        <v>2.7500000000000004E-13</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333338E-13</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>1.3833333333333334E-12</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f>F6*21</f>
+        <v>210</v>
+      </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" t="s">
+        <v>318</v>
+      </c>
+      <c r="M6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O6" t="s">
+        <v>319</v>
+      </c>
+      <c r="P6">
+        <v>2.4589985994397714</v>
+      </c>
+      <c r="Q6">
+        <v>2.5313112720384385</v>
+      </c>
+      <c r="R6">
+        <v>1.0964285714285702</v>
+      </c>
+      <c r="S6">
+        <v>3.7086134453781399</v>
+      </c>
+      <c r="T6" t="s">
+        <v>320</v>
+      </c>
+      <c r="U6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V6">
+        <f>P6/1000000/0.1/0.15</f>
+        <v>1.6393323996265142E-4</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:Y6" si="3">Q6/1000000/0.1/0.15</f>
+        <v>1.6875408480256256E-4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>7.3095238095238015E-5</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>2.4724089635854265E-4</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EE4405-B4C3-46B7-B8B8-F3A59345C99B}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2*24</f>
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <f>A2*$C$2</f>
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <f>(E2)*(A2-0)</f>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2">
+        <f>G2/10</f>
+        <v>3.5000000000000005E-3</v>
+      </c>
+      <c r="J2">
+        <f>I2</f>
+        <v>3.5000000000000005E-3</v>
+      </c>
+      <c r="K2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="L2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M2">
+        <f>$K$2*EXP(F2*$L$2)</f>
+        <v>3.5251481666477781E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B27" si="0">A3*24</f>
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">A3*$C$2</f>
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <f>F2+((E3+E2)/2)*(A3-A2)</f>
+        <v>45</v>
+      </c>
+      <c r="G3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I6" si="2">G3/10</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J6" si="3">I3</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="4">$K$2*EXP(F3*$L$2)</f>
+        <v>4.0225758996114214E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F6" si="5">F3+((E4+E3)/2)*(A4-A3)</f>
+        <v>75</v>
+      </c>
+      <c r="G4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>4.5901948239304748E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="G5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>4.9033687479195865E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>525</v>
+      </c>
+      <c r="G6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>3.3245601361544835E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20A3C74-7DFC-4CEB-A83D-886DEB62D87A}">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.95130000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2071,8 +5096,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
